--- a/public/static/xlsx/metadata/olink_template.xlsx
+++ b/public/static/xlsx/metadata/olink_template.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Trial identifier used by lead organization, e.g. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
+          <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Assay category.</t>
+          <t>Panel used for the assay.</t>
         </r>
       </text>
     </comment>
@@ -67,11 +67,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Artifact category.</t>
+          <t>Lot number of the assay panel.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,11 +80,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Prefix to used for the filename</t>
+          <t>Path to a file on a user's computer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,11 +93,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Type of file being uploaded</t>
+          <t>Version of NPX manager used for the analysis.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,11 +106,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Date when the Olink assay was run</t>
+          <t>Chip barcode number.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="C10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,11 +119,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time when the Olink assay was run</t>
+          <t>Path to a file on a user's computer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="D10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,11 +132,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Instrument used for the Olink assay</t>
+          <t>Path to a file on a user's computer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,11 +145,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Version of the Fluidgm application used</t>
+          <t>Date when the Olink assay was run.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,11 +158,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Build of the Fluidgm application used</t>
+          <t>Time when the Olink assay was run.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,11 +171,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Chip barcode number</t>
+          <t>Instrument used for the Olink assay.</t>
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0">
+    <comment ref="H10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -184,11 +184,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Probe Type</t>
+          <t>Version of the Fluidgm application used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0">
+    <comment ref="I10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,11 +197,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Passive Reference</t>
+          <t>Build of the Fluidgm application used.</t>
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0">
+    <comment ref="J10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,11 +210,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Threshold used for quality cutoff</t>
+          <t>Probe Type.</t>
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0">
+    <comment ref="K10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,11 +223,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Method used for baseline correction</t>
+          <t>Passive Reference.</t>
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0">
+    <comment ref="L10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,11 +236,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Panel used for the assay</t>
+          <t>Threshold used for quality cutoff.</t>
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0">
+    <comment ref="M10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,11 +249,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Number of sample analyzed in the assay</t>
+          <t>Method used for baseline correction.</t>
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0">
+    <comment ref="N10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,11 +262,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Number of sample failed in the assay</t>
+          <t>Number of samples analyzed in the assay.</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0">
+    <comment ref="O10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,11 +275,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Version of NPX manager used for the analysis</t>
+          <t>Number of samples failed in the assay.</t>
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="0">
+    <comment ref="P10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Lot Number of the assay panel</t>
+          <t>Version of NPX manager used for the analysis.</t>
         </r>
       </text>
     </comment>
@@ -297,27 +297,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="27">
   <si>
     <t>#t</t>
   </si>
   <si>
-    <t>METADATA FILE FOR OLINK</t>
+    <t>Metadata file for olink</t>
   </si>
   <si>
     <t>#p</t>
   </si>
   <si>
-    <t>LEAD ORGANIZATION STUDY ID</t>
-  </si>
-  <si>
-    <t>ASSAY CREATOR</t>
-  </si>
-  <si>
-    <t>ASSAY CATEGORY</t>
-  </si>
-  <si>
-    <t>ARTIFACT_CATEGORY</t>
+    <t>Protocol identifier</t>
+  </si>
+  <si>
+    <t>Assay creator</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>Assay panel lot</t>
+  </si>
+  <si>
+    <t>Combined file</t>
+  </si>
+  <si>
+    <t>Combined file npx manager version</t>
   </si>
   <si>
     <t>Olink Assay details</t>
@@ -329,55 +335,49 @@
     <t>#d</t>
   </si>
   <si>
-    <t>ASSAY_PREFIX</t>
-  </si>
-  <si>
-    <t>FILETYPE</t>
-  </si>
-  <si>
-    <t>RUN DATE</t>
-  </si>
-  <si>
-    <t>RUN TIME</t>
-  </si>
-  <si>
-    <t>INSTRUMENT</t>
-  </si>
-  <si>
-    <t>FLUDIGM APPLICATION VERSION</t>
-  </si>
-  <si>
-    <t>FLUDIGM APPLICATION BUILD</t>
-  </si>
-  <si>
-    <t>CHIP BARCODE</t>
-  </si>
-  <si>
-    <t>PROBE TYPE</t>
-  </si>
-  <si>
-    <t>PASSIVE REFERENCE</t>
-  </si>
-  <si>
-    <t>QUALITY THRESHOLD</t>
-  </si>
-  <si>
-    <t>BASELINE CORRECTION</t>
-  </si>
-  <si>
-    <t>PANEL</t>
-  </si>
-  <si>
-    <t>NUMBER OF SAMPLE</t>
-  </si>
-  <si>
-    <t>NUMBER OF SAMPLE FAILED</t>
-  </si>
-  <si>
-    <t>NPX MANAGER VERSION</t>
-  </si>
-  <si>
-    <t>ASSAY PANEL LOT</t>
+    <t>Chip barcode</t>
+  </si>
+  <si>
+    <t>Npx file</t>
+  </si>
+  <si>
+    <t>Raw ct file</t>
+  </si>
+  <si>
+    <t>Run date</t>
+  </si>
+  <si>
+    <t>Run time</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Fludigm application version</t>
+  </si>
+  <si>
+    <t>Fludigm application build</t>
+  </si>
+  <si>
+    <t>Probe type</t>
+  </si>
+  <si>
+    <t>Passive reference</t>
+  </si>
+  <si>
+    <t>Quality threshold</t>
+  </si>
+  <si>
+    <t>Baseline correction</t>
+  </si>
+  <si>
+    <t>Number of samples</t>
+  </si>
+  <si>
+    <t>Number of samples failed</t>
+  </si>
+  <si>
+    <t>Npx manager version</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R208"/>
+  <dimension ref="A1:P210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,7 +787,7 @@
     <col min="2" max="101" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,10 +808,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -832,10 +830,8 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -856,10 +852,8 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -880,10 +874,8 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -904,1108 +896,1133 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B9:P9"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Whole Exome Sequencing (WES),RNASeq,Conventional Immunohistochemistry,Multiplex Immunohistochemistry,Multiplex Immunofluorescence,CyTOF,OLink,NanoString,ELISpot,Multiplexed Ion-Beam Imaging (MIBI),Other,None"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="E11:E210">
+      <formula1>AND(ISNUMBER(E11:E210),LEFT(CELL("format",E11:E210),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Assay Artifact from CIMAC,Pipeline Artifact,Manifest File,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C208">
-      <formula1>"assay,study"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="D9:D208">
-      <formula1>AND(ISNUMBER(D9:D208),LEFT(CELL("format",D9:D208),1)="D")</formula1>
-    </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="E9:E208">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="F11:F210">
       <formula1>0</formula1>
       <formula2>0.9993055555555556</formula2>
     </dataValidation>
